--- a/recette.xlsx
+++ b/recette.xlsx
@@ -5,40 +5,31 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mon Drive\bootcamp\projet\CuisiAI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\gitAin002\CuisineAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A24D2BB-5E2E-4A8E-BFC9-B560A9DEB255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA1E2EB-3A7D-4888-BDEA-1B46479F2A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7FFE5158-1182-4138-98C0-8648A957B639}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" firstSheet="1" activeTab="2" xr2:uid="{7FFE5158-1182-4138-98C0-8648A957B639}"/>
   </bookViews>
   <sheets>
     <sheet name="recettes" sheetId="1" r:id="rId1"/>
     <sheet name="ingrédients sucré" sheetId="3" r:id="rId2"/>
     <sheet name="ingrédients salé" sheetId="2" r:id="rId3"/>
+    <sheet name="étape recette salée" sheetId="4" r:id="rId4"/>
+    <sheet name="étape recette sucré" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="76">
   <si>
     <t>salé</t>
   </si>
@@ -52,9 +43,6 @@
     <t>sandwich</t>
   </si>
   <si>
-    <t>soupe</t>
-  </si>
-  <si>
     <t>crèpe</t>
   </si>
   <si>
@@ -136,12 +124,6 @@
     <t>patte</t>
   </si>
   <si>
-    <t>bouillon</t>
-  </si>
-  <si>
-    <t>garniture</t>
-  </si>
-  <si>
     <t>unité</t>
   </si>
   <si>
@@ -166,7 +148,115 @@
     <t>sachet</t>
   </si>
   <si>
-    <t>à la demande</t>
+    <t>patte au beurre</t>
+  </si>
+  <si>
+    <t>patte au beur</t>
+  </si>
+  <si>
+    <t>beurre</t>
+  </si>
+  <si>
+    <t>poivre</t>
+  </si>
+  <si>
+    <t>optionnel</t>
+  </si>
+  <si>
+    <t>croque-monsieur</t>
+  </si>
+  <si>
+    <t>étape 1</t>
+  </si>
+  <si>
+    <t>Préchauffer le four à 180°C</t>
+  </si>
+  <si>
+    <t>Faites revenir l'oignon et l'ail émincés dans un peu d'huile d'olive, ajoutez le coulis de tomate, les herbes de Provence (thym, romarin, ou origan) et laissez mijoter pendant 10 minutes à feu doux</t>
+  </si>
+  <si>
+    <t>Remettre rapidement les pattes égouttées dans le faitout vide avec le beurre. Ajouter sel et poivre au goût. Bien mélanger et servir</t>
+  </si>
+  <si>
+    <t>étape 2</t>
+  </si>
+  <si>
+    <t>Étaler plusieurs rondelles de chorizo sur 2 tranches de pain de mie. Recouvrir avec le fromage. Ajouter ensuite le reste de chorizo. Refermer les croque-monsieurs avec une autre tranche de pain de mie</t>
+  </si>
+  <si>
+    <t>Répartissez un peu de sauce tomate sur la pâte à pizza</t>
+  </si>
+  <si>
+    <t>étape 3</t>
+  </si>
+  <si>
+    <t>Faire cuire au four pendant 5 minutes environ jusqu'à ce que le fromage soit bien fondu. Servir chaud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Répartissez la garniture de façon homogène (tomates coupées, mozzarella, jambon, etc...) &gt;&gt; à vous de laisser libre cours à votre imagination </t>
+  </si>
+  <si>
+    <t>étape 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enfournez dans le bas du four 10 minutes à 220°C, four bien chaud</t>
+  </si>
+  <si>
+    <t>étape 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Servez avec de la roquette... ça pique un peu, c'est excellent :)</t>
+  </si>
+  <si>
+    <t>Mettre la farine dans une terrine et former un puits</t>
+  </si>
+  <si>
+    <t>Préchauffer le four à 150°C (thermostat 5). Dans une casserole, faire chauffer le lait avec le sucre. Couper la gousse de vanille en 2, retirer les graines, les mélanger au lait avec les 2 moitiés de gousse</t>
+  </si>
+  <si>
+    <t>Préchauffez le four à 180°C (thermostat 6). Mélangez les oeufs, le sucre et l'huile puis ajoutez la farine, la levure et le sucre vanillé</t>
+  </si>
+  <si>
+    <t>Y déposer les oeufs entiers, le sucre, l'huile et le beurr</t>
+  </si>
+  <si>
+    <t>Battre les 6 oeufs</t>
+  </si>
+  <si>
+    <t>Battez bien le tout</t>
+  </si>
+  <si>
+    <t>Mélanger délicatement avec un fouet en ajoutant au fur et à mesure le lait. La pâte ainsi obtenue doit avoir une consistance d'un liquide légèrement épais</t>
+  </si>
+  <si>
+    <t>Dans le moule à flan, faire un caramel : mettre les morceaux de sucre et verser un filet d'eau. Une fois le caramel prêt (attention à ne pas le faire trop cuire), le verser en tournant le moule pour le répartir sur toute la surface</t>
+  </si>
+  <si>
+    <t>Faites-le cuire dans un four chauffé à 180°C (thermostat 6) pendant 35 minutes environ</t>
+  </si>
+  <si>
+    <t>Parfumer de rhum</t>
+  </si>
+  <si>
+    <t>Une fois que le lait a bouilli, l'incorporer doucement aux oeufs sans cesser de remue</t>
+  </si>
+  <si>
+    <t>Faire chauffer une poêle antiadhésive et la huiler très légèrement à l'aide d'un papier Essuie-tout. Y verser une louche de pâte, la répartir dans la poêle puis attendre qu'elle soit cuite d'un côté avant de la retourner. Cuire ainsi toutes les crêpes à feu doux</t>
+  </si>
+  <si>
+    <t>Enfin, verser le mélange dans le moule</t>
+  </si>
+  <si>
+    <t>étape 6</t>
+  </si>
+  <si>
+    <t>Faire cuire envciron 45 minutes au four, au bain-marie</t>
+  </si>
+  <si>
+    <t>étape 7</t>
+  </si>
+  <si>
+    <t>Surveiller la cuisson en plantant une pointe de couteau : elle doit ressortir propre</t>
   </si>
 </sst>
 </file>
@@ -543,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904881AB-B841-467E-B27E-16ADCF958619}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +652,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -570,15 +660,15 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -606,204 +696,204 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>250</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>0.1</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>225</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>200</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7">
         <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -820,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938050BA-873C-49EB-BF93-506F35F3FE60}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,174 +930,181 @@
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3">
         <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>300</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>0.5</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1018,4 +1115,224 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEBD34C-F4D0-48CF-A815-6BF7808C7F08}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7BAAF62-9CCF-4F6D-B59E-3DC469E43379}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/recette.xlsx
+++ b/recette.xlsx
@@ -5,19 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\gitAin002\CuisineAI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mon Drive\bootcamp\projet\CuisiAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA1E2EB-3A7D-4888-BDEA-1B46479F2A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC93355-99E7-4EF3-A56E-893D229F4BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" firstSheet="1" activeTab="2" xr2:uid="{7FFE5158-1182-4138-98C0-8648A957B639}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" firstSheet="2" activeTab="2" xr2:uid="{7FFE5158-1182-4138-98C0-8648A957B639}"/>
   </bookViews>
   <sheets>
     <sheet name="recettes" sheetId="1" r:id="rId1"/>
     <sheet name="ingrédients sucré" sheetId="3" r:id="rId2"/>
     <sheet name="ingrédients salé" sheetId="2" r:id="rId3"/>
-    <sheet name="étape recette salée" sheetId="4" r:id="rId4"/>
-    <sheet name="étape recette sucré" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="39">
   <si>
     <t>salé</t>
   </si>
@@ -40,9 +38,6 @@
     <t>pizza</t>
   </si>
   <si>
-    <t>sandwich</t>
-  </si>
-  <si>
     <t>crèpe</t>
   </si>
   <si>
@@ -88,18 +83,6 @@
     <t>sucre vanillé</t>
   </si>
   <si>
-    <t>pain</t>
-  </si>
-  <si>
-    <t>tomate</t>
-  </si>
-  <si>
-    <t>salade</t>
-  </si>
-  <si>
-    <t>miel</t>
-  </si>
-  <si>
     <t>oignon</t>
   </si>
   <si>
@@ -148,122 +131,26 @@
     <t>sachet</t>
   </si>
   <si>
+    <t>croque-monsieur</t>
+  </si>
+  <si>
+    <t>pain de mie</t>
+  </si>
+  <si>
+    <t>beurre</t>
+  </si>
+  <si>
     <t>patte au beurre</t>
   </si>
   <si>
-    <t>patte au beur</t>
-  </si>
-  <si>
-    <t>beurre</t>
-  </si>
-  <si>
-    <t>poivre</t>
-  </si>
-  <si>
-    <t>optionnel</t>
-  </si>
-  <si>
-    <t>croque-monsieur</t>
-  </si>
-  <si>
-    <t>étape 1</t>
-  </si>
-  <si>
-    <t>Préchauffer le four à 180°C</t>
-  </si>
-  <si>
-    <t>Faites revenir l'oignon et l'ail émincés dans un peu d'huile d'olive, ajoutez le coulis de tomate, les herbes de Provence (thym, romarin, ou origan) et laissez mijoter pendant 10 minutes à feu doux</t>
-  </si>
-  <si>
-    <t>Remettre rapidement les pattes égouttées dans le faitout vide avec le beurre. Ajouter sel et poivre au goût. Bien mélanger et servir</t>
-  </si>
-  <si>
-    <t>étape 2</t>
-  </si>
-  <si>
-    <t>Étaler plusieurs rondelles de chorizo sur 2 tranches de pain de mie. Recouvrir avec le fromage. Ajouter ensuite le reste de chorizo. Refermer les croque-monsieurs avec une autre tranche de pain de mie</t>
-  </si>
-  <si>
-    <t>Répartissez un peu de sauce tomate sur la pâte à pizza</t>
-  </si>
-  <si>
-    <t>étape 3</t>
-  </si>
-  <si>
-    <t>Faire cuire au four pendant 5 minutes environ jusqu'à ce que le fromage soit bien fondu. Servir chaud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Répartissez la garniture de façon homogène (tomates coupées, mozzarella, jambon, etc...) &gt;&gt; à vous de laisser libre cours à votre imagination </t>
-  </si>
-  <si>
-    <t>étape 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Enfournez dans le bas du four 10 minutes à 220°C, four bien chaud</t>
-  </si>
-  <si>
-    <t>étape 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Servez avec de la roquette... ça pique un peu, c'est excellent :)</t>
-  </si>
-  <si>
-    <t>Mettre la farine dans une terrine et former un puits</t>
-  </si>
-  <si>
-    <t>Préchauffer le four à 150°C (thermostat 5). Dans une casserole, faire chauffer le lait avec le sucre. Couper la gousse de vanille en 2, retirer les graines, les mélanger au lait avec les 2 moitiés de gousse</t>
-  </si>
-  <si>
-    <t>Préchauffez le four à 180°C (thermostat 6). Mélangez les oeufs, le sucre et l'huile puis ajoutez la farine, la levure et le sucre vanillé</t>
-  </si>
-  <si>
-    <t>Y déposer les oeufs entiers, le sucre, l'huile et le beurr</t>
-  </si>
-  <si>
-    <t>Battre les 6 oeufs</t>
-  </si>
-  <si>
-    <t>Battez bien le tout</t>
-  </si>
-  <si>
-    <t>Mélanger délicatement avec un fouet en ajoutant au fur et à mesure le lait. La pâte ainsi obtenue doit avoir une consistance d'un liquide légèrement épais</t>
-  </si>
-  <si>
-    <t>Dans le moule à flan, faire un caramel : mettre les morceaux de sucre et verser un filet d'eau. Une fois le caramel prêt (attention à ne pas le faire trop cuire), le verser en tournant le moule pour le répartir sur toute la surface</t>
-  </si>
-  <si>
-    <t>Faites-le cuire dans un four chauffé à 180°C (thermostat 6) pendant 35 minutes environ</t>
-  </si>
-  <si>
-    <t>Parfumer de rhum</t>
-  </si>
-  <si>
-    <t>Une fois que le lait a bouilli, l'incorporer doucement aux oeufs sans cesser de remue</t>
-  </si>
-  <si>
-    <t>Faire chauffer une poêle antiadhésive et la huiler très légèrement à l'aide d'un papier Essuie-tout. Y verser une louche de pâte, la répartir dans la poêle puis attendre qu'elle soit cuite d'un côté avant de la retourner. Cuire ainsi toutes les crêpes à feu doux</t>
-  </si>
-  <si>
-    <t>Enfin, verser le mélange dans le moule</t>
-  </si>
-  <si>
-    <t>étape 6</t>
-  </si>
-  <si>
-    <t>Faire cuire envciron 45 minutes au four, au bain-marie</t>
-  </si>
-  <si>
-    <t>étape 7</t>
-  </si>
-  <si>
-    <t>Surveiller la cuisson en plantant une pointe de couteau : elle doit ressortir propre</t>
+    <t>beurre non salé</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +174,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -296,7 +189,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -304,18 +197,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -634,7 +540,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,23 +558,23 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -696,204 +602,204 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>250</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>0.1</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>225</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>200</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7">
         <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -910,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938050BA-873C-49EB-BF93-506F35F3FE60}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:G14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,7 +827,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -930,181 +836,180 @@
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1"/>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
+        <v>27</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="H4">
         <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>300</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="H5">
         <v>0.2</v>
       </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8">
-        <v>0.5</v>
-      </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1115,224 +1020,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEBD34C-F4D0-48CF-A815-6BF7808C7F08}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7BAAF62-9CCF-4F6D-B59E-3DC469E43379}">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>